--- a/results/tinybert/dilemma/seed-100/0.1/percents/scores-10.xlsx
+++ b/results/tinybert/dilemma/seed-100/0.1/percents/scores-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="90">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -43,208 +43,229 @@
     <t>name</t>
   </si>
   <si>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
-    <t>scary</t>
+    <t>other</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>shocking</t>
+  </si>
+  <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>dangerous</t>
   </si>
   <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>[UNK]</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>useless</t>
+  </si>
+  <si>
+    <t>worthless</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>carefully</t>
+  </si>
+  <si>
+    <t>extreme</t>
+  </si>
+  <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>annoying</t>
+  </si>
+  <si>
+    <t>unnecessary</t>
+  </si>
+  <si>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>badly</t>
+  </si>
+  <si>
+    <t>lonely</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>ironically</t>
+  </si>
+  <si>
+    <t>chilling</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>lazy</t>
-  </si>
-  <si>
-    <t>shitty</t>
-  </si>
-  <si>
-    <t>nasty</t>
-  </si>
-  <si>
-    <t>horrified</t>
-  </si>
-  <si>
-    <t>tired</t>
-  </si>
-  <si>
-    <t>holes</t>
-  </si>
-  <si>
-    <t>awful</t>
-  </si>
-  <si>
-    <t>disgusting</t>
-  </si>
-  <si>
-    <t>sexual</t>
-  </si>
-  <si>
-    <t>racist</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>harsh</t>
-  </si>
-  <si>
-    <t>vicious</t>
-  </si>
-  <si>
-    <t>suicide</t>
-  </si>
-  <si>
-    <t>worse</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
     <t>hate</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>behind</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>long</t>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>bad</t>
   </si>
   <si>
     <t>0.95-positive</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
     <t>more</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>decent</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>most</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>vital</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>agile</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>fun</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>digital</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
+    <t>wow</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>enjoyable</t>
-  </si>
-  <si>
-    <t>highest</t>
-  </si>
-  <si>
-    <t>elegant</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>holy</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>all</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>it</t>
+    <t>documentary</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -620,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS46"/>
+  <dimension ref="A1:BS43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,25 +652,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="S1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AB1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AT1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="BC1" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="BL1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -851,13 +872,13 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.002080186264106163</v>
+        <v>0.002274862553664165</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -869,19 +890,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K3">
-        <v>0.128463788417077</v>
+        <v>0.04134094224544074</v>
       </c>
       <c r="L3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -893,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.002240297957438259</v>
+        <v>0.002392380731781183</v>
       </c>
       <c r="U3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="V3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="W3">
         <v>1</v>
@@ -917,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AC3">
-        <v>0.07036187985720405</v>
+        <v>0.03390959822691243</v>
       </c>
       <c r="AD3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -941,13 +962,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL3">
-        <v>0.05732413903003025</v>
+        <v>0.002738793243685663</v>
       </c>
       <c r="AM3">
         <v>9</v>
@@ -965,19 +986,19 @@
         <v>0</v>
       </c>
       <c r="AR3">
-        <v>95</v>
+        <v>57</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AU3">
-        <v>0.06031898334061675</v>
+        <v>0.03278483057095109</v>
       </c>
       <c r="AV3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -989,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD3">
-        <v>0.04167305136220137</v>
+        <v>0.003338129499702237</v>
       </c>
       <c r="BE3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG3">
         <v>1</v>
@@ -1013,19 +1034,19 @@
         <v>0</v>
       </c>
       <c r="BJ3">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BM3">
-        <v>0.05635439600485173</v>
+        <v>0.03233022631590525</v>
       </c>
       <c r="BN3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BO3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1037,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>42</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1045,13 +1066,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.001890588387796558</v>
+        <v>0.002107912974194533</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1063,19 +1084,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K4">
-        <v>0.08741750078179432</v>
+        <v>0.03681471651548837</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1087,19 +1108,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.002103766724674239</v>
+        <v>0.002364208083675305</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1111,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AC4">
-        <v>0.05711383436955004</v>
+        <v>0.03297638377242766</v>
       </c>
       <c r="AD4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF4">
         <v>0</v>
@@ -1135,19 +1156,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="AK4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AL4">
+        <v>0.002564138069029133</v>
+      </c>
+      <c r="AM4">
         <v>10</v>
       </c>
-      <c r="AL4">
-        <v>0.05617543346157074</v>
-      </c>
-      <c r="AM4">
-        <v>8</v>
-      </c>
       <c r="AN4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1159,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>58</v>
+        <v>128</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="AU4">
-        <v>0.05188659609451078</v>
+        <v>0.03239543468549964</v>
       </c>
       <c r="AV4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX4">
         <v>0</v>
@@ -1183,19 +1204,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD4">
-        <v>0.04109034795185643</v>
+        <v>0.002838949808625854</v>
       </c>
       <c r="BE4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1207,19 +1228,19 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="BM4">
-        <v>0.0498230636632029</v>
+        <v>0.03216062892318711</v>
       </c>
       <c r="BN4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BP4">
         <v>0</v>
@@ -1231,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>90</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1239,13 +1260,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.001411893693025899</v>
+        <v>0.001866997306159251</v>
       </c>
       <c r="C5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1257,19 +1278,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.05163711803480273</v>
+        <v>0.03666328351626728</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1281,19 +1302,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.001358084283926812</v>
+        <v>0.00198469651488259</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1305,19 +1326,19 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>132</v>
+        <v>96</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC5">
-        <v>0.04981834895981511</v>
+        <v>0.0328171273755511</v>
       </c>
       <c r="AD5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF5">
         <v>0</v>
@@ -1329,44 +1350,44 @@
         <v>0</v>
       </c>
       <c r="AI5">
+        <v>46</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL5">
+        <v>0.002156718435324392</v>
+      </c>
+      <c r="AM5">
         <v>8</v>
       </c>
-      <c r="AK5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AL5">
-        <v>0.03469968388992927</v>
-      </c>
-      <c r="AM5">
+      <c r="AN5">
+        <v>8</v>
+      </c>
+      <c r="AO5">
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>96</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU5">
+        <v>0.03223499418186921</v>
+      </c>
+      <c r="AV5">
         <v>4</v>
       </c>
-      <c r="AN5">
+      <c r="AW5">
         <v>4</v>
       </c>
-      <c r="AO5">
-        <v>1</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>36</v>
-      </c>
-      <c r="AT5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AU5">
-        <v>0.04935091777355368</v>
-      </c>
-      <c r="AV5">
-        <v>2</v>
-      </c>
-      <c r="AW5">
-        <v>2</v>
-      </c>
       <c r="AX5">
         <v>0</v>
       </c>
@@ -1377,44 +1398,44 @@
         <v>0</v>
       </c>
       <c r="BA5">
+        <v>46</v>
+      </c>
+      <c r="BC5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BD5">
+        <v>0.002431953508031276</v>
+      </c>
+      <c r="BE5">
         <v>8</v>
       </c>
-      <c r="BC5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BD5">
-        <v>0.02960260009331824</v>
-      </c>
-      <c r="BE5">
+      <c r="BF5">
+        <v>8</v>
+      </c>
+      <c r="BG5">
+        <v>1</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>96</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BM5">
+        <v>0.03199970983185382</v>
+      </c>
+      <c r="BN5">
         <v>4</v>
       </c>
-      <c r="BF5">
+      <c r="BO5">
         <v>4</v>
       </c>
-      <c r="BG5">
-        <v>1</v>
-      </c>
-      <c r="BH5">
-        <v>0</v>
-      </c>
-      <c r="BI5" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ5">
-        <v>36</v>
-      </c>
-      <c r="BL5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BM5">
-        <v>0.04916639214806975</v>
-      </c>
-      <c r="BN5">
-        <v>2</v>
-      </c>
-      <c r="BO5">
-        <v>2</v>
-      </c>
       <c r="BP5">
         <v>0</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1433,7 +1454,7 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.001047488323699473</v>
+        <v>0.001031094241540611</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1451,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.05082697882121948</v>
+        <v>0.03661028196653991</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1475,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.001155276139039489</v>
+        <v>0.001073508375443539</v>
       </c>
       <c r="U6">
         <v>4</v>
@@ -1499,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AC6">
-        <v>0.0489025704862891</v>
+        <v>0.0327613876366443</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1523,19 +1544,19 @@
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="AK6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL6">
-        <v>0.03404963153040643</v>
+        <v>0.001193204258918381</v>
       </c>
       <c r="AM6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AN6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1547,19 +1568,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>132</v>
+        <v>8</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AU6">
-        <v>0.04844373178506924</v>
+        <v>0.03217884000559856</v>
       </c>
       <c r="AV6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1571,13 +1592,13 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="BC6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD6">
-        <v>0.02641354364621337</v>
+        <v>0.001516670442562824</v>
       </c>
       <c r="BE6">
         <v>3</v>
@@ -1595,19 +1616,19 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="BM6">
-        <v>0.04826259817475965</v>
+        <v>0.03194338814988716</v>
       </c>
       <c r="BN6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BO6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BP6">
         <v>0</v>
@@ -1619,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1627,13 +1648,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.0008733651749344362</v>
+        <v>0.0008527135392926514</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1645,19 +1666,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>295</v>
+        <v>8</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.0497332908828821</v>
+        <v>0.03602861932438237</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1669,13 +1690,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>55</v>
+        <v>1091</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="T7">
-        <v>0.0009133634253143894</v>
+        <v>0.000991037894140604</v>
       </c>
       <c r="U7">
         <v>3</v>
@@ -1693,13 +1714,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AC7">
-        <v>0.04766626954702898</v>
+        <v>0.03189187574091017</v>
       </c>
       <c r="AD7">
         <v>2</v>
@@ -1717,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL7">
-        <v>0.02912978307680696</v>
+        <v>0.001172566168472441</v>
       </c>
       <c r="AM7">
         <v>3</v>
@@ -1741,19 +1762,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AU7">
-        <v>0.04762874521103302</v>
+        <v>0.03185362032159928</v>
       </c>
       <c r="AV7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1765,43 +1786,43 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BD7">
+        <v>0.001478342560306079</v>
+      </c>
+      <c r="BE7">
+        <v>3</v>
+      </c>
+      <c r="BF7">
+        <v>3</v>
+      </c>
+      <c r="BG7">
+        <v>1</v>
+      </c>
+      <c r="BH7">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ7">
         <v>11</v>
       </c>
-      <c r="BD7">
-        <v>0.02592268670099514</v>
-      </c>
-      <c r="BE7">
-        <v>6</v>
-      </c>
-      <c r="BF7">
-        <v>6</v>
-      </c>
-      <c r="BG7">
-        <v>1</v>
-      </c>
-      <c r="BH7">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ7">
-        <v>132</v>
-      </c>
       <c r="BL7" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="BM7">
-        <v>0.04807383413549227</v>
+        <v>0.03183815839370234</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP7">
         <v>0</v>
@@ -1813,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="BS7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:71">
@@ -1821,7 +1842,7 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.0008357048724506938</v>
+        <v>0.0008506962823317701</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -1839,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8">
-        <v>0.04961177000084461</v>
+        <v>0.03388908427891995</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1863,13 +1884,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="T8">
-        <v>0.0008814296432049716</v>
+        <v>0.0009814559235764174</v>
       </c>
       <c r="U8">
         <v>3</v>
@@ -1887,19 +1908,19 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AC8">
-        <v>0.04752890277600007</v>
+        <v>0.03181302980885032</v>
       </c>
       <c r="AD8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF8">
         <v>0</v>
@@ -1911,91 +1932,91 @@
         <v>0</v>
       </c>
       <c r="AI8">
+        <v>92</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AL8">
+        <v>0.001135498263455512</v>
+      </c>
+      <c r="AM8">
+        <v>4</v>
+      </c>
+      <c r="AN8">
+        <v>4</v>
+      </c>
+      <c r="AO8">
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>62</v>
+      </c>
+      <c r="AT8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AK8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AL8">
-        <v>0.02779002694206065</v>
-      </c>
-      <c r="AM8">
-        <v>3</v>
-      </c>
-      <c r="AN8">
-        <v>3</v>
-      </c>
-      <c r="AO8">
-        <v>1</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>42</v>
-      </c>
-      <c r="AT8" s="1" t="s">
+      <c r="AU8">
+        <v>0.03174131196905799</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
+      </c>
+      <c r="AY8">
+        <v>1</v>
+      </c>
+      <c r="AZ8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA8">
+        <v>16</v>
+      </c>
+      <c r="BC8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BD8">
+        <v>0.001234682084274667</v>
+      </c>
+      <c r="BE8">
+        <v>4</v>
+      </c>
+      <c r="BF8">
+        <v>4</v>
+      </c>
+      <c r="BG8">
+        <v>1</v>
+      </c>
+      <c r="BH8">
+        <v>0</v>
+      </c>
+      <c r="BI8" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ8">
         <v>62</v>
       </c>
-      <c r="AU8">
-        <v>0.04762874521103302</v>
-      </c>
-      <c r="AV8">
-        <v>1</v>
-      </c>
-      <c r="AW8">
-        <v>1</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>1</v>
-      </c>
-      <c r="AZ8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="BD8">
-        <v>0.02527058611365282</v>
-      </c>
-      <c r="BE8">
-        <v>3</v>
-      </c>
-      <c r="BF8">
-        <v>3</v>
-      </c>
-      <c r="BG8">
-        <v>1</v>
-      </c>
-      <c r="BH8">
-        <v>0</v>
-      </c>
-      <c r="BI8" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ8">
-        <v>42</v>
-      </c>
       <c r="BL8" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="BM8">
-        <v>0.04807383413549227</v>
+        <v>0.03172551502976903</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP8">
         <v>0</v>
@@ -2007,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2015,151 +2036,151 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0008289819709539742</v>
+        <v>0.0006366773737749067</v>
       </c>
       <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9">
+        <v>0.03214462943627596</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T9">
+        <v>0.000729703962306189</v>
+      </c>
+      <c r="U9">
+        <v>2</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>10</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC9">
+        <v>0.03178039626309657</v>
+      </c>
+      <c r="AD9">
+        <v>2</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>1</v>
+      </c>
+      <c r="AH9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>16</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL9">
+        <v>0.0008656658993903708</v>
+      </c>
+      <c r="AM9">
+        <v>2</v>
+      </c>
+      <c r="AN9">
+        <v>2</v>
+      </c>
+      <c r="AO9">
+        <v>1</v>
+      </c>
+      <c r="AP9">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>10</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AU9">
+        <v>0.03149880953939081</v>
+      </c>
+      <c r="AV9">
         <v>3</v>
       </c>
-      <c r="D9">
+      <c r="AW9">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>42</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K9">
-        <v>0.04900416559065717</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>73</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9">
-        <v>0.0008143687007751939</v>
-      </c>
-      <c r="U9">
-        <v>3</v>
-      </c>
-      <c r="V9">
-        <v>3</v>
-      </c>
-      <c r="W9">
-        <v>1</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>63</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC9">
-        <v>0.04684206892085557</v>
-      </c>
-      <c r="AD9">
-        <v>2</v>
-      </c>
-      <c r="AE9">
-        <v>2</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>1</v>
-      </c>
-      <c r="AH9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>73</v>
-      </c>
-      <c r="AK9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL9">
-        <v>0.02530156523885485</v>
-      </c>
-      <c r="AM9">
-        <v>2</v>
-      </c>
-      <c r="AN9">
-        <v>2</v>
-      </c>
-      <c r="AO9">
-        <v>1</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR9">
+      <c r="AX9">
+        <v>0</v>
+      </c>
+      <c r="AY9">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA9">
+        <v>92</v>
+      </c>
+      <c r="BC9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AT9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU9">
-        <v>0.04762874521103302</v>
-      </c>
-      <c r="AV9">
-        <v>1</v>
-      </c>
-      <c r="AW9">
-        <v>1</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>1</v>
-      </c>
-      <c r="AZ9" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="BD9">
-        <v>0.02471033199143722</v>
+        <v>0.001083204998725062</v>
       </c>
       <c r="BE9">
         <v>2</v>
@@ -2177,13 +2198,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BM9">
-        <v>0.04807383413549227</v>
+        <v>0.03158841762872664</v>
       </c>
       <c r="BN9">
         <v>1</v>
@@ -2201,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2209,13 +2230,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.000814863877810863</v>
+        <v>0.0006360049547879463</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2227,157 +2248,157 @@
         <v>0</v>
       </c>
       <c r="H10">
+        <v>11</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10">
+        <v>0.0320386263368212</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>16</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T10">
+        <v>0.000726509972118127</v>
+      </c>
+      <c r="U10">
+        <v>2</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10">
+        <v>1</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>11</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC10">
+        <v>0.03145392064949962</v>
+      </c>
+      <c r="AD10">
+        <v>2</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>1</v>
+      </c>
+      <c r="AH10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>57</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL10">
+        <v>0.0008587865359083909</v>
+      </c>
+      <c r="AM10">
+        <v>2</v>
+      </c>
+      <c r="AN10">
+        <v>2</v>
+      </c>
+      <c r="AO10">
+        <v>1</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>11</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AU10">
+        <v>0.03149447086265237</v>
+      </c>
+      <c r="AV10">
+        <v>1</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>1</v>
+      </c>
+      <c r="AZ10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA10">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD10">
+        <v>0.001070429037972813</v>
+      </c>
+      <c r="BE10">
+        <v>2</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>1</v>
+      </c>
+      <c r="BH10">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ10">
+        <v>11</v>
+      </c>
+      <c r="BL10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K10">
-        <v>0.03892718921267506</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T10">
-        <v>0.0007129646283315327</v>
-      </c>
-      <c r="U10">
-        <v>2</v>
-      </c>
-      <c r="V10">
-        <v>2</v>
-      </c>
-      <c r="W10">
-        <v>1</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>15</v>
-      </c>
-      <c r="AB10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AC10">
-        <v>0.04650126796549498</v>
-      </c>
-      <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
-      </c>
-      <c r="AH10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AL10">
-        <v>0.02530156523885485</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>2</v>
-      </c>
-      <c r="AO10">
-        <v>1</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>15</v>
-      </c>
-      <c r="AT10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AU10">
-        <v>0.04753802661218458</v>
-      </c>
-      <c r="AV10">
-        <v>1</v>
-      </c>
-      <c r="AW10">
-        <v>1</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>1</v>
-      </c>
-      <c r="AZ10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>2</v>
-      </c>
-      <c r="BC10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="BD10">
-        <v>0.02471033199143722</v>
-      </c>
-      <c r="BE10">
-        <v>2</v>
-      </c>
-      <c r="BF10">
-        <v>2</v>
-      </c>
-      <c r="BG10">
-        <v>1</v>
-      </c>
-      <c r="BH10">
-        <v>0</v>
-      </c>
-      <c r="BI10" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ10">
-        <v>15</v>
-      </c>
-      <c r="BL10" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="BM10">
-        <v>0.04798345473816126</v>
+        <v>0.03158841762872664</v>
       </c>
       <c r="BN10">
         <v>1</v>
@@ -2395,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="BS10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:71">
@@ -2403,7 +2424,7 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.00063266119314765</v>
+        <v>0.0006319704408661835</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -2421,85 +2442,85 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11">
+        <v>0.03172818868841799</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>1</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>57</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11">
+        <v>0.0007073460309897539</v>
+      </c>
+      <c r="U11">
+        <v>2</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>17</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC11">
+        <v>0.03141410655028047</v>
+      </c>
+      <c r="AD11">
+        <v>2</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>1</v>
+      </c>
+      <c r="AH11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI11">
         <v>62</v>
       </c>
-      <c r="K11">
-        <v>0.03892718921267506</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>1</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11">
-        <v>0.0007129646283315327</v>
-      </c>
-      <c r="U11">
-        <v>2</v>
-      </c>
-      <c r="V11">
-        <v>2</v>
-      </c>
-      <c r="W11">
-        <v>1</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>15</v>
-      </c>
-      <c r="AB11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC11">
-        <v>0.04650126796549498</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>1</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>1</v>
-      </c>
-      <c r="AH11" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
       <c r="AK11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.02503361401190559</v>
+        <v>0.0008175103550165109</v>
       </c>
       <c r="AM11">
         <v>2</v>
@@ -2520,10 +2541,10 @@
         <v>17</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU11">
-        <v>0.04744730801333613</v>
+        <v>0.03149447086265237</v>
       </c>
       <c r="AV11">
         <v>1</v>
@@ -2541,13 +2562,13 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BD11">
-        <v>0.02448174048492512</v>
+        <v>0.0009937732734593219</v>
       </c>
       <c r="BE11">
         <v>2</v>
@@ -2568,10 +2589,10 @@
         <v>17</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BM11">
-        <v>0.04789307534083025</v>
+        <v>0.03158037167415997</v>
       </c>
       <c r="BN11">
         <v>1</v>
@@ -2589,7 +2610,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2597,7 +2618,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.00063266119314765</v>
+        <v>0.0006178496421400141</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -2615,19 +2636,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K12">
-        <v>0.03892718921267506</v>
+        <v>0.03169033043861272</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2639,13 +2660,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="T12">
-        <v>0.0007065778719096493</v>
+        <v>0.000640272237040449</v>
       </c>
       <c r="U12">
         <v>2</v>
@@ -2663,19 +2684,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AC12">
-        <v>0.04650126796549498</v>
+        <v>0.03135836681137368</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2687,19 +2708,19 @@
         <v>0</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AK12" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.02497653905909342</v>
+        <v>0.0006730437218949309</v>
       </c>
       <c r="AM12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO12">
         <v>1</v>
@@ -2711,13 +2732,13 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AU12">
-        <v>0.04731123011506347</v>
+        <v>0.03148644883747085</v>
       </c>
       <c r="AV12">
         <v>1</v>
@@ -2735,19 +2756,19 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="BD12">
-        <v>0.02322448719910851</v>
+        <v>0.000803051083914282</v>
       </c>
       <c r="BE12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG12">
         <v>1</v>
@@ -2759,13 +2780,13 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BM12">
-        <v>0.04775750624483374</v>
+        <v>0.03158037167415997</v>
       </c>
       <c r="BN12">
         <v>1</v>
@@ -2783,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2791,7 +2812,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.000631316612848306</v>
+        <v>0.000613142709231291</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -2809,19 +2830,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.03884617529131674</v>
+        <v>0.03163732888888534</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2833,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="T13">
-        <v>0.0006714507115892894</v>
+        <v>0.0006179143057240141</v>
       </c>
       <c r="U13">
         <v>2</v>
@@ -2857,13 +2878,13 @@
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AC13">
-        <v>0.04640969011814238</v>
+        <v>0.0312620307068693</v>
       </c>
       <c r="AD13">
         <v>1</v>
@@ -2881,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.02355988226368465</v>
+        <v>0.000624888177521071</v>
       </c>
       <c r="AM13">
         <v>2</v>
@@ -2905,19 +2926,19 @@
         <v>0</v>
       </c>
       <c r="AR13">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AU13">
-        <v>0.04721903070061524</v>
+        <v>0.03148644883747085</v>
       </c>
       <c r="AV13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX13">
         <v>0</v>
@@ -2929,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BD13">
-        <v>0.02287037529527567</v>
+        <v>0.000803051083914282</v>
       </c>
       <c r="BE13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BG13">
         <v>1</v>
@@ -2953,13 +2974,13 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BM13">
-        <v>0.0473959886555097</v>
+        <v>0.03156427976502665</v>
       </c>
       <c r="BN13">
         <v>1</v>
@@ -2977,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="BS13">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:71">
@@ -2985,13 +3006,13 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0006239214212019145</v>
+        <v>0.0004287102361006873</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -3003,13 +3024,13 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.03876516136995841</v>
+        <v>0.02972629774709817</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3027,109 +3048,109 @@
         <v>0</v>
       </c>
       <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="T14">
+        <v>0.0005066979127285195</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AC14">
+        <v>0.0312620307068693</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AL14">
+        <v>0.0006206799016461206</v>
+      </c>
+      <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
+        <v>1</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU14">
+        <v>0.03147040478710781</v>
+      </c>
+      <c r="AV14">
+        <v>1</v>
+      </c>
+      <c r="AW14">
+        <v>1</v>
+      </c>
+      <c r="AX14">
+        <v>0</v>
+      </c>
+      <c r="AY14">
+        <v>1</v>
+      </c>
+      <c r="AZ14" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA14">
         <v>4</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T14">
-        <v>0.000617163282003279</v>
-      </c>
-      <c r="U14">
-        <v>2</v>
-      </c>
-      <c r="V14">
-        <v>2</v>
-      </c>
-      <c r="W14">
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>45</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC14">
-        <v>0.04631811227078978</v>
-      </c>
-      <c r="AD14">
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>1</v>
-      </c>
-      <c r="AH14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AL14">
-        <v>0.02128229683461593</v>
-      </c>
-      <c r="AM14">
-        <v>2</v>
-      </c>
-      <c r="AN14">
-        <v>2</v>
-      </c>
-      <c r="AO14">
-        <v>1</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>45</v>
-      </c>
-      <c r="AT14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AU14">
-        <v>0.04708295280234258</v>
-      </c>
-      <c r="AV14">
-        <v>2</v>
-      </c>
-      <c r="AW14">
-        <v>2</v>
-      </c>
-      <c r="AX14">
-        <v>0</v>
-      </c>
-      <c r="AY14">
-        <v>1</v>
-      </c>
-      <c r="AZ14" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA14">
-        <v>58</v>
-      </c>
       <c r="BC14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD14">
-        <v>0.02277852883014896</v>
+        <v>0.0007902751231620335</v>
       </c>
       <c r="BE14">
         <v>1</v>
@@ -3147,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BM14">
-        <v>0.04730560925817869</v>
+        <v>0.03155623381045998</v>
       </c>
       <c r="BN14">
         <v>1</v>
@@ -3171,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3179,13 +3200,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.0006124924886574913</v>
+        <v>0.0004287102361006873</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3197,13 +3218,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.03864364048792092</v>
+        <v>0.02972629774709817</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -3221,19 +3242,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T15">
-        <v>0.0005181685574640835</v>
+        <v>0.0005066979127285195</v>
       </c>
       <c r="U15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -3245,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AC15">
-        <v>0.04618074549976088</v>
+        <v>0.03125406788702548</v>
       </c>
       <c r="AD15">
         <v>1</v>
@@ -3269,13 +3290,13 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AK15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.02120539617395346</v>
+        <v>0.0006206799016461206</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -3299,7 +3320,7 @@
         <v>67</v>
       </c>
       <c r="AU15">
-        <v>0.04694835571966969</v>
+        <v>0.03146238276192628</v>
       </c>
       <c r="AV15">
         <v>1</v>
@@ -3317,13 +3338,13 @@
         <v>0</v>
       </c>
       <c r="BA15">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="BC15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD15">
-        <v>0.02277852883014896</v>
+        <v>0.0007902751231620335</v>
       </c>
       <c r="BE15">
         <v>1</v>
@@ -3341,19 +3362,19 @@
         <v>0</v>
       </c>
       <c r="BJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="BM15">
-        <v>0.04704247631079101</v>
+        <v>0.03154818785589331</v>
       </c>
       <c r="BN15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP15">
         <v>0</v>
@@ -3365,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="BS15">
-        <v>55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3373,13 +3394,13 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0005916514940176606</v>
+        <v>0.0004280378171137268</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -3391,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>76</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K16">
-        <v>0.03831958480248763</v>
+        <v>0.02971872609713711</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -3415,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T16">
-        <v>0.0005061790749267925</v>
+        <v>0.0005035039225404573</v>
       </c>
       <c r="U16">
         <v>1</v>
@@ -3439,13 +3460,13 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AC16">
-        <v>0.04581443411035047</v>
+        <v>0.03125406788702548</v>
       </c>
       <c r="AD16">
         <v>1</v>
@@ -3463,13 +3484,13 @@
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="AK16" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AL16">
-        <v>0.02120539617395346</v>
+        <v>0.0006138005381641405</v>
       </c>
       <c r="AM16">
         <v>1</v>
@@ -3487,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="AU16">
-        <v>0.04685763712082124</v>
+        <v>0.03145436073674477</v>
       </c>
       <c r="AV16">
         <v>1</v>
@@ -3511,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="BC16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD16">
-        <v>0.02277852883014896</v>
+        <v>0.0007902751231620335</v>
       </c>
       <c r="BE16">
         <v>1</v>
@@ -3535,19 +3556,19 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="BM16">
-        <v>0.04690690721479449</v>
+        <v>0.03154014190132665</v>
       </c>
       <c r="BN16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP16">
         <v>0</v>
@@ -3559,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3567,7 +3588,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.0004282729335452622</v>
+        <v>0.0004280378171137268</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -3585,13 +3606,13 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.0382385708811293</v>
+        <v>0.02971872609713711</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -3609,13 +3630,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T17">
-        <v>0.0005061790749267925</v>
+        <v>0.0005035039225404573</v>
       </c>
       <c r="U17">
         <v>1</v>
@@ -3633,13 +3654,13 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AC17">
-        <v>0.04572285626299788</v>
+        <v>0.03123814224733782</v>
       </c>
       <c r="AD17">
         <v>1</v>
@@ -3657,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AK17" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL17">
-        <v>0.02120539617395346</v>
+        <v>0.0006138005381641405</v>
       </c>
       <c r="AM17">
         <v>1</v>
@@ -3681,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="AU17">
-        <v>0.04644940342600325</v>
+        <v>0.03144633871156325</v>
       </c>
       <c r="AV17">
         <v>1</v>
@@ -3705,13 +3726,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="BC17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD17">
-        <v>0.02277852883014896</v>
+        <v>0.0007774991624097849</v>
       </c>
       <c r="BE17">
         <v>1</v>
@@ -3729,13 +3750,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BM17">
-        <v>0.04689890197018914</v>
+        <v>0.03151600403762666</v>
       </c>
       <c r="BN17">
         <v>1</v>
@@ -3753,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3761,7 +3782,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.0004282729335452622</v>
+        <v>0.0004280378171137268</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -3779,13 +3800,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K18">
-        <v>0.03787400823501684</v>
+        <v>0.029703582797215</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -3803,109 +3824,109 @@
         <v>0</v>
       </c>
       <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T18">
+        <v>0.0005035039225404573</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC18">
+        <v>0.03123017942749399</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>1</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>1</v>
+      </c>
+      <c r="AH18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>5</v>
+      </c>
+      <c r="AK18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AL18">
+        <v>0.0006138005381641405</v>
+      </c>
+      <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
+        <v>1</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>1</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU18">
+        <v>0.03142227263601868</v>
+      </c>
+      <c r="AV18">
+        <v>1</v>
+      </c>
+      <c r="AW18">
+        <v>1</v>
+      </c>
+      <c r="AX18">
+        <v>0</v>
+      </c>
+      <c r="AY18">
+        <v>1</v>
+      </c>
+      <c r="AZ18" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA18">
+        <v>10</v>
+      </c>
+      <c r="BC18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18">
-        <v>0.0005061790749267925</v>
-      </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18">
-        <v>1</v>
-      </c>
-      <c r="W18">
-        <v>1</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AC18">
-        <v>0.04531075594991116</v>
-      </c>
-      <c r="AD18">
-        <v>1</v>
-      </c>
-      <c r="AE18">
-        <v>1</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>1</v>
-      </c>
-      <c r="AH18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>26</v>
-      </c>
-      <c r="AK18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL18">
-        <v>0.02120539617395346</v>
-      </c>
-      <c r="AM18">
-        <v>1</v>
-      </c>
-      <c r="AN18">
-        <v>1</v>
-      </c>
-      <c r="AO18">
-        <v>1</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU18">
-        <v>0.04640256331097924</v>
-      </c>
-      <c r="AV18">
-        <v>2</v>
-      </c>
-      <c r="AW18">
-        <v>2</v>
-      </c>
-      <c r="AX18">
-        <v>0</v>
-      </c>
-      <c r="AY18">
-        <v>1</v>
-      </c>
-      <c r="AZ18" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA18">
-        <v>73</v>
-      </c>
-      <c r="BC18" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="BD18">
-        <v>0.0226642330768929</v>
+        <v>0.0007774991624097849</v>
       </c>
       <c r="BE18">
         <v>1</v>
@@ -3923,13 +3944,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BM18">
-        <v>0.04680852257285813</v>
+        <v>0.03147577426479333</v>
       </c>
       <c r="BN18">
         <v>1</v>
@@ -3947,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -3955,7 +3976,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0004282729335452622</v>
+        <v>0.0004273653981267664</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -3973,13 +3994,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="K19">
-        <v>0.03779299431365851</v>
+        <v>0.02969601114725395</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -3997,13 +4018,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="T19">
-        <v>0.0005061790749267925</v>
+        <v>0.0005003099323523953</v>
       </c>
       <c r="U19">
         <v>1</v>
@@ -4021,13 +4042,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AC19">
-        <v>0.04521917810255857</v>
+        <v>0.03122221660765016</v>
       </c>
       <c r="AD19">
         <v>1</v>
@@ -4045,61 +4066,61 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="AK19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AL19">
+        <v>0.0006069211746821605</v>
+      </c>
+      <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
+        <v>1</v>
+      </c>
+      <c r="AP19">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>2</v>
+      </c>
+      <c r="AT19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU19">
+        <v>0.03141240893661561</v>
+      </c>
+      <c r="AV19">
+        <v>2</v>
+      </c>
+      <c r="AW19">
+        <v>2</v>
+      </c>
+      <c r="AX19">
+        <v>0</v>
+      </c>
+      <c r="AY19">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA19">
+        <v>57</v>
+      </c>
+      <c r="BC19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AL19">
-        <v>0.02107142056047883</v>
-      </c>
-      <c r="AM19">
-        <v>1</v>
-      </c>
-      <c r="AN19">
-        <v>1</v>
-      </c>
-      <c r="AO19">
-        <v>1</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>1</v>
-      </c>
-      <c r="AT19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU19">
-        <v>0.0463586848271548</v>
-      </c>
-      <c r="AV19">
-        <v>1</v>
-      </c>
-      <c r="AW19">
-        <v>1</v>
-      </c>
-      <c r="AX19">
-        <v>0</v>
-      </c>
-      <c r="AY19">
-        <v>1</v>
-      </c>
-      <c r="AZ19" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA19">
-        <v>28</v>
-      </c>
-      <c r="BC19" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="BD19">
-        <v>0.0226642330768929</v>
+        <v>0.0007647232016575364</v>
       </c>
       <c r="BE19">
         <v>1</v>
@@ -4117,13 +4138,13 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BM19">
-        <v>0.04644700498353408</v>
+        <v>0.03145968235566</v>
       </c>
       <c r="BN19">
         <v>1</v>
@@ -4141,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>36</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4149,7 +4170,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0004282729335452622</v>
+        <v>0.0004273653981267664</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -4167,13 +4188,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K20">
-        <v>0.03746893862822521</v>
+        <v>0.02968843949729289</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4191,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T20">
-        <v>0.0005029856967158507</v>
+        <v>0.0005003099323523953</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -4215,13 +4236,13 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AC20">
-        <v>0.04485286671314816</v>
+        <v>0.03121425378780633</v>
       </c>
       <c r="AD20">
         <v>1</v>
@@ -4239,13 +4260,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL20">
-        <v>0.02107142056047883</v>
+        <v>0.0006069211746821605</v>
       </c>
       <c r="AM20">
         <v>1</v>
@@ -4263,13 +4284,13 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="AU20">
-        <v>0.04599581043176102</v>
+        <v>0.03138216251011108</v>
       </c>
       <c r="AV20">
         <v>1</v>
@@ -4287,13 +4308,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="BC20" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD20">
-        <v>0.0226642330768929</v>
+        <v>0.0007647232016575364</v>
       </c>
       <c r="BE20">
         <v>1</v>
@@ -4311,19 +4332,19 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="BM20">
-        <v>0.04622906173481191</v>
+        <v>0.03145163640109334</v>
       </c>
       <c r="BN20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP20">
         <v>0</v>
@@ -4335,7 +4356,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>73</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4343,7 +4364,7 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.0004276006433955903</v>
+        <v>0.000426692979139806</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -4361,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K21">
-        <v>0.03682082725735861</v>
+        <v>0.02968086784733184</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -4385,13 +4406,13 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T21">
-        <v>0.0005029856967158507</v>
+        <v>0.000497115942164333</v>
       </c>
       <c r="U21">
         <v>1</v>
@@ -4409,13 +4430,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC21">
-        <v>0.04412024393432735</v>
+        <v>0.03119036532827485</v>
       </c>
       <c r="AD21">
         <v>1</v>
@@ -4433,61 +4454,61 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="AK21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AL21">
+        <v>0.0006000418112001805</v>
+      </c>
+      <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>3</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AU21">
+        <v>0.03137229881070801</v>
+      </c>
+      <c r="AV21">
+        <v>2</v>
+      </c>
+      <c r="AW21">
+        <v>2</v>
+      </c>
+      <c r="AX21">
+        <v>0</v>
+      </c>
+      <c r="AY21">
+        <v>1</v>
+      </c>
+      <c r="AZ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA21">
+        <v>62</v>
+      </c>
+      <c r="BC21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AL21">
-        <v>0.02107142056047883</v>
-      </c>
-      <c r="AM21">
-        <v>1</v>
-      </c>
-      <c r="AN21">
-        <v>1</v>
-      </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>1</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AU21">
-        <v>0.04527006164097347</v>
-      </c>
-      <c r="AV21">
-        <v>1</v>
-      </c>
-      <c r="AW21">
-        <v>1</v>
-      </c>
-      <c r="AX21">
-        <v>0</v>
-      </c>
-      <c r="AY21">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA21">
-        <v>52</v>
-      </c>
-      <c r="BC21" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="BD21">
-        <v>0.0226642330768929</v>
+        <v>0.0007647232016575364</v>
       </c>
       <c r="BE21">
         <v>1</v>
@@ -4505,19 +4526,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="BM21">
-        <v>0.045723969804886</v>
+        <v>0.03139563089253577</v>
       </c>
       <c r="BN21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP21">
         <v>0</v>
@@ -4529,7 +4550,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4537,7 +4558,7 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.0004276006433955903</v>
+        <v>0.000426692979139806</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -4555,13 +4576,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="K22">
-        <v>0.03637525068988783</v>
+        <v>0.02965815289744868</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -4579,13 +4600,13 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T22">
-        <v>0.0005029856967158507</v>
+        <v>0.000497115942164333</v>
       </c>
       <c r="U22">
         <v>1</v>
@@ -4603,13 +4624,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AC22">
-        <v>0.04361656577388804</v>
+        <v>0.03115055122905571</v>
       </c>
       <c r="AD22">
         <v>1</v>
@@ -4627,61 +4648,61 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="AK22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AL22">
+        <v>0.0006000418112001805</v>
+      </c>
+      <c r="AM22">
+        <v>1</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>3</v>
+      </c>
+      <c r="AT22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AU22">
+        <v>0.03136611845974803</v>
+      </c>
+      <c r="AV22">
+        <v>1</v>
+      </c>
+      <c r="AW22">
+        <v>1</v>
+      </c>
+      <c r="AX22">
+        <v>0</v>
+      </c>
+      <c r="AY22">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA22">
+        <v>17</v>
+      </c>
+      <c r="BC22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AL22">
-        <v>0.02107142056047883</v>
-      </c>
-      <c r="AM22">
-        <v>1</v>
-      </c>
-      <c r="AN22">
-        <v>1</v>
-      </c>
-      <c r="AO22">
-        <v>1</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>1</v>
-      </c>
-      <c r="AT22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AU22">
-        <v>0.04477110934730703</v>
-      </c>
-      <c r="AV22">
-        <v>1</v>
-      </c>
-      <c r="AW22">
-        <v>1</v>
-      </c>
-      <c r="AX22">
-        <v>0</v>
-      </c>
-      <c r="AY22">
-        <v>1</v>
-      </c>
-      <c r="AZ22" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA22">
-        <v>63</v>
-      </c>
-      <c r="BC22" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="BD22">
-        <v>0.0226642330768929</v>
+        <v>0.0007519472409052878</v>
       </c>
       <c r="BE22">
         <v>1</v>
@@ -4699,13 +4720,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BM22">
-        <v>0.04522688311956544</v>
+        <v>0.03138726876456002</v>
       </c>
       <c r="BN22">
         <v>1</v>
@@ -4723,7 +4744,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4731,7 +4752,7 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004276006433955903</v>
+        <v>0.000426692979139806</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -4749,13 +4770,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K23">
-        <v>0.02981312305986352</v>
+        <v>0.02962029464764341</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4773,13 +4794,13 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>225</v>
+        <v>15</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="T23">
-        <v>0.0005029856967158507</v>
+        <v>0.000497115942164333</v>
       </c>
       <c r="U23">
         <v>1</v>
@@ -4797,13 +4818,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AC23">
-        <v>0.03619876013832734</v>
+        <v>0.03113462558936806</v>
       </c>
       <c r="AD23">
         <v>1</v>
@@ -4821,61 +4842,61 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>225</v>
+        <v>17</v>
       </c>
       <c r="AK23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL23">
+        <v>0.0006000418112001805</v>
+      </c>
+      <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
+        <v>1</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>3</v>
+      </c>
+      <c r="AT23" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AU23">
+        <v>0.03135809643456652</v>
+      </c>
+      <c r="AV23">
+        <v>1</v>
+      </c>
+      <c r="AW23">
+        <v>1</v>
+      </c>
+      <c r="AX23">
+        <v>0</v>
+      </c>
+      <c r="AY23">
+        <v>1</v>
+      </c>
+      <c r="AZ23" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA23">
+        <v>18</v>
+      </c>
+      <c r="BC23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL23">
-        <v>0.02107142056047883</v>
-      </c>
-      <c r="AM23">
-        <v>1</v>
-      </c>
-      <c r="AN23">
-        <v>1</v>
-      </c>
-      <c r="AO23">
-        <v>1</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>1</v>
-      </c>
-      <c r="AT23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AU23">
-        <v>0.03742290284058304</v>
-      </c>
-      <c r="AV23">
-        <v>1</v>
-      </c>
-      <c r="AW23">
-        <v>1</v>
-      </c>
-      <c r="AX23">
-        <v>0</v>
-      </c>
-      <c r="AY23">
-        <v>1</v>
-      </c>
-      <c r="AZ23" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA23">
-        <v>225</v>
-      </c>
-      <c r="BC23" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="BD23">
-        <v>0.02254993732363685</v>
+        <v>0.0007391712801530393</v>
       </c>
       <c r="BE23">
         <v>1</v>
@@ -4893,13 +4914,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BM23">
-        <v>0.03790615193575358</v>
+        <v>0.03137922280999336</v>
       </c>
       <c r="BN23">
         <v>1</v>
@@ -4917,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>225</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -4925,7 +4946,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0004276006433955903</v>
+        <v>0.0004260205601528455</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -4943,19 +4964,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="K24">
-        <v>0.007565544815874043</v>
+        <v>0.0296051513477213</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -4967,13 +4988,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1096</v>
+        <v>17</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="T24">
-        <v>0.0005029856967158507</v>
+        <v>0.000493921951976271</v>
       </c>
       <c r="U24">
         <v>1</v>
@@ -4991,13 +5012,13 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AC24">
-        <v>0.002498112312570062</v>
+        <v>0.03112666276952423</v>
       </c>
       <c r="AD24">
         <v>1</v>
@@ -5015,61 +5036,61 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>961</v>
+        <v>18</v>
       </c>
       <c r="AK24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL24">
+        <v>0.0005931624477182006</v>
+      </c>
+      <c r="AM24">
+        <v>1</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR24">
+        <v>4</v>
+      </c>
+      <c r="AT24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AU24">
+        <v>0.03131614463443736</v>
+      </c>
+      <c r="AV24">
+        <v>2</v>
+      </c>
+      <c r="AW24">
+        <v>2</v>
+      </c>
+      <c r="AX24">
+        <v>0</v>
+      </c>
+      <c r="AY24">
+        <v>1</v>
+      </c>
+      <c r="AZ24" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA24">
+        <v>69</v>
+      </c>
+      <c r="BC24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AL24">
-        <v>0.0209374449470042</v>
-      </c>
-      <c r="AM24">
-        <v>1</v>
-      </c>
-      <c r="AN24">
-        <v>1</v>
-      </c>
-      <c r="AO24">
-        <v>1</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>2</v>
-      </c>
-      <c r="AT24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU24">
-        <v>0.00403845846435556</v>
-      </c>
-      <c r="AV24">
-        <v>1</v>
-      </c>
-      <c r="AW24">
-        <v>1</v>
-      </c>
-      <c r="AX24">
-        <v>0</v>
-      </c>
-      <c r="AY24">
-        <v>1</v>
-      </c>
-      <c r="AZ24" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA24">
-        <v>961</v>
-      </c>
-      <c r="BC24" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="BD24">
-        <v>0.02254993732363685</v>
+        <v>0.0007391712801530393</v>
       </c>
       <c r="BE24">
         <v>1</v>
@@ -5087,19 +5108,19 @@
         <v>0</v>
       </c>
       <c r="BJ24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="BM24">
-        <v>0.004646533717941693</v>
+        <v>0.03137180920224486</v>
       </c>
       <c r="BN24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BO24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -5111,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>961</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5119,7 +5140,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0004276006433955903</v>
+        <v>0.0004253481411658851</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -5137,163 +5158,163 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K25">
+        <v>0.02959757969776025</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>18</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="T25">
+        <v>0.0004907279617882087</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>5</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AC25">
+        <v>0.0310629602107736</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>1</v>
+      </c>
+      <c r="AH25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI25">
+        <v>26</v>
+      </c>
+      <c r="AK25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL25">
+        <v>0.0005862830842362205</v>
+      </c>
+      <c r="AM25">
+        <v>1</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
+        <v>1</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>5</v>
+      </c>
+      <c r="AT25" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU25">
+        <v>0.03129392023311434</v>
+      </c>
+      <c r="AV25">
+        <v>1</v>
+      </c>
+      <c r="AW25">
+        <v>1</v>
+      </c>
+      <c r="AX25">
+        <v>0</v>
+      </c>
+      <c r="AY25">
+        <v>1</v>
+      </c>
+      <c r="AZ25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA25">
+        <v>26</v>
+      </c>
+      <c r="BC25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="BD25">
+        <v>0.0007254780976621019</v>
+      </c>
+      <c r="BE25">
+        <v>2</v>
+      </c>
+      <c r="BF25">
+        <v>2</v>
+      </c>
+      <c r="BG25">
+        <v>1</v>
+      </c>
+      <c r="BH25">
+        <v>0</v>
+      </c>
+      <c r="BI25" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ25">
+        <v>38</v>
+      </c>
+      <c r="BL25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>1</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>961</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="T25">
-        <v>0.0004997923185049089</v>
-      </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>1</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>2</v>
-      </c>
-      <c r="AE25">
-        <v>2</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>1</v>
-      </c>
-      <c r="AH25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>1096</v>
-      </c>
-      <c r="AK25" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL25">
-        <v>0.0209374449470042</v>
-      </c>
-      <c r="AM25">
-        <v>1</v>
-      </c>
-      <c r="AN25">
-        <v>1</v>
-      </c>
-      <c r="AO25">
-        <v>1</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>2</v>
-      </c>
-      <c r="AT25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>2</v>
-      </c>
-      <c r="AW25">
-        <v>2</v>
-      </c>
-      <c r="AX25">
-        <v>0</v>
-      </c>
-      <c r="AY25">
-        <v>1</v>
-      </c>
-      <c r="AZ25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA25">
-        <v>1096</v>
-      </c>
-      <c r="BC25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="BD25">
-        <v>0.02254993732363685</v>
-      </c>
-      <c r="BE25">
-        <v>1</v>
-      </c>
-      <c r="BF25">
-        <v>1</v>
-      </c>
-      <c r="BG25">
-        <v>1</v>
-      </c>
-      <c r="BH25">
-        <v>0</v>
-      </c>
-      <c r="BI25" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ25">
-        <v>2</v>
-      </c>
-      <c r="BL25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="BM25">
-        <v>0</v>
+        <v>0.03137117685542669</v>
       </c>
       <c r="BN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5305,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>1096</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5313,7 +5334,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.0004269283532459183</v>
+        <v>0.0004253481411658851</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -5331,61 +5352,133 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K26">
+        <v>0.02953700649807181</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>26</v>
       </c>
       <c r="S26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="T26">
+        <v>0.0004907279617882087</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>5</v>
+      </c>
+      <c r="AB26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AC26">
+        <v>0.03105499739092977</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>1</v>
+      </c>
+      <c r="AH26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>27</v>
+      </c>
+      <c r="AK26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL26">
+        <v>0.0005862830842362205</v>
+      </c>
+      <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>5</v>
+      </c>
+      <c r="AT26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU26">
+        <v>0.03128589820793282</v>
+      </c>
+      <c r="AV26">
+        <v>1</v>
+      </c>
+      <c r="AW26">
+        <v>1</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>1</v>
+      </c>
+      <c r="AZ26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>27</v>
+      </c>
+      <c r="BC26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T26">
-        <v>0.0004997923185049089</v>
-      </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>1</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>2</v>
-      </c>
-      <c r="AK26" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL26">
-        <v>0.0209374449470042</v>
-      </c>
-      <c r="AM26">
-        <v>1</v>
-      </c>
-      <c r="AN26">
-        <v>1</v>
-      </c>
-      <c r="AO26">
-        <v>1</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>2</v>
-      </c>
-      <c r="BC26" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="BD26">
-        <v>0.02232134581712474</v>
+        <v>0.0007008433978962935</v>
       </c>
       <c r="BE26">
         <v>1</v>
@@ -5403,7 +5496,31 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="BL26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM26">
+        <v>0.03135540111970245</v>
+      </c>
+      <c r="BN26">
+        <v>2</v>
+      </c>
+      <c r="BO26">
+        <v>2</v>
+      </c>
+      <c r="BP26">
+        <v>0</v>
+      </c>
+      <c r="BQ26">
+        <v>1</v>
+      </c>
+      <c r="BR26" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS26">
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5411,7 +5528,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.0004269283532459183</v>
+        <v>0.0004233308842050037</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -5429,61 +5546,133 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="K27">
+        <v>0.02952943484811076</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>27</v>
       </c>
       <c r="S27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27">
+        <v>0.0004811459912240223</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>8</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC27">
+        <v>0.03104703457108594</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>1</v>
+      </c>
+      <c r="AH27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI27">
+        <v>28</v>
+      </c>
+      <c r="AK27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL27">
+        <v>0.0005656449937902806</v>
+      </c>
+      <c r="AM27">
+        <v>1</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
+        <v>1</v>
+      </c>
+      <c r="AP27">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR27">
+        <v>8</v>
+      </c>
+      <c r="AT27" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU27">
+        <v>0.0312778761827513</v>
+      </c>
+      <c r="AV27">
+        <v>1</v>
+      </c>
+      <c r="AW27">
+        <v>1</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>1</v>
+      </c>
+      <c r="AZ27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>28</v>
+      </c>
+      <c r="BC27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T27">
-        <v>0.0004997923185049089</v>
-      </c>
-      <c r="U27">
-        <v>1</v>
-      </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>1</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>2</v>
-      </c>
-      <c r="AK27" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL27">
-        <v>0.02066949372005494</v>
-      </c>
-      <c r="AM27">
-        <v>1</v>
-      </c>
-      <c r="AN27">
-        <v>1</v>
-      </c>
-      <c r="AO27">
-        <v>1</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>4</v>
-      </c>
-      <c r="BC27" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="BD27">
-        <v>0.02209275431061263</v>
+        <v>0.0007008433978962935</v>
       </c>
       <c r="BE27">
         <v>1</v>
@@ -5501,7 +5690,31 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="BL27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM27">
+        <v>0.03133094708259336</v>
+      </c>
+      <c r="BN27">
+        <v>1</v>
+      </c>
+      <c r="BO27">
+        <v>1</v>
+      </c>
+      <c r="BP27">
+        <v>0</v>
+      </c>
+      <c r="BQ27">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS27">
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5509,7 +5722,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.0004269283532459183</v>
+        <v>0.0004233308842050037</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -5527,61 +5740,133 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K28">
+        <v>0.0295218631981497</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>28</v>
       </c>
       <c r="S28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28">
+        <v>0.0004811459912240223</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>8</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC28">
+        <v>0.0310072204718668</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>1</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>1</v>
+      </c>
+      <c r="AH28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>33</v>
+      </c>
+      <c r="AK28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AL28">
+        <v>0.0005656449937902806</v>
+      </c>
+      <c r="AM28">
+        <v>1</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
+        <v>1</v>
+      </c>
+      <c r="AP28">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>8</v>
+      </c>
+      <c r="AT28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU28">
+        <v>0.03123776605684369</v>
+      </c>
+      <c r="AV28">
+        <v>1</v>
+      </c>
+      <c r="AW28">
+        <v>1</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>1</v>
+      </c>
+      <c r="AZ28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>33</v>
+      </c>
+      <c r="BC28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="T28">
-        <v>0.0004934055620830252</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>1</v>
-      </c>
-      <c r="W28">
-        <v>1</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>4</v>
-      </c>
-      <c r="AK28" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL28">
-        <v>0.02040154249310568</v>
-      </c>
-      <c r="AM28">
-        <v>1</v>
-      </c>
-      <c r="AN28">
-        <v>1</v>
-      </c>
-      <c r="AO28">
-        <v>1</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>6</v>
-      </c>
-      <c r="BC28" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="BD28">
-        <v>0.02197845855735658</v>
+        <v>0.0006752914763917964</v>
       </c>
       <c r="BE28">
         <v>1</v>
@@ -5599,7 +5884,31 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="BL28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BM28">
+        <v>0.03132290112802669</v>
+      </c>
+      <c r="BN28">
+        <v>1</v>
+      </c>
+      <c r="BO28">
+        <v>1</v>
+      </c>
+      <c r="BP28">
+        <v>0</v>
+      </c>
+      <c r="BQ28">
+        <v>1</v>
+      </c>
+      <c r="BR28" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS28">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5607,7 +5916,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.0004255837729465744</v>
+        <v>0.0004219860462310828</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -5625,61 +5934,133 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29">
+        <v>0.02948400494834444</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>33</v>
       </c>
       <c r="S29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T29">
+        <v>0.000474758010847898</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>10</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AC29">
+        <v>0.03099925765202298</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>1</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>1</v>
+      </c>
+      <c r="AH29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>34</v>
+      </c>
+      <c r="AK29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL29">
+        <v>0.0005518862668263205</v>
+      </c>
+      <c r="AM29">
+        <v>1</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>10</v>
+      </c>
+      <c r="AT29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AU29">
+        <v>0.03122974403166217</v>
+      </c>
+      <c r="AV29">
+        <v>1</v>
+      </c>
+      <c r="AW29">
+        <v>1</v>
+      </c>
+      <c r="AX29">
+        <v>0</v>
+      </c>
+      <c r="AY29">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>34</v>
+      </c>
+      <c r="BC29" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="T29">
-        <v>0.0004870188056611417</v>
-      </c>
-      <c r="U29">
-        <v>1</v>
-      </c>
-      <c r="V29">
-        <v>1</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>6</v>
-      </c>
-      <c r="AK29" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL29">
-        <v>0.02026756687963105</v>
-      </c>
-      <c r="AM29">
-        <v>1</v>
-      </c>
-      <c r="AN29">
-        <v>1</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>7</v>
-      </c>
-      <c r="BC29" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="BD29">
-        <v>0.02197845855735658</v>
+        <v>0.0006625155156395478</v>
       </c>
       <c r="BE29">
         <v>1</v>
@@ -5697,7 +6078,31 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM29">
+        <v>0.03130680921889337</v>
+      </c>
+      <c r="BN29">
+        <v>1</v>
+      </c>
+      <c r="BO29">
+        <v>1</v>
+      </c>
+      <c r="BP29">
+        <v>0</v>
+      </c>
+      <c r="BQ29">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS29">
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -5705,7 +6110,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.0004242391926472305</v>
+        <v>0.0004213136272441223</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -5723,61 +6128,133 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30">
+        <v>0.02947643329838338</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <v>1</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>34</v>
       </c>
       <c r="S30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30">
+        <v>0.0004715640206598359</v>
+      </c>
+      <c r="U30">
+        <v>1</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>11</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC30">
+        <v>0.03098333201233532</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>1</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+      <c r="AH30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>36</v>
+      </c>
+      <c r="AK30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL30">
+        <v>0.0005450069033443405</v>
+      </c>
+      <c r="AM30">
+        <v>1</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>1</v>
+      </c>
+      <c r="AP30">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>11</v>
+      </c>
+      <c r="AT30" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU30">
+        <v>0.03121369998129913</v>
+      </c>
+      <c r="AV30">
+        <v>1</v>
+      </c>
+      <c r="AW30">
+        <v>1</v>
+      </c>
+      <c r="AX30">
+        <v>0</v>
+      </c>
+      <c r="AY30">
+        <v>1</v>
+      </c>
+      <c r="AZ30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA30">
+        <v>36</v>
+      </c>
+      <c r="BC30" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="T30">
-        <v>0.0004838254274501999</v>
-      </c>
-      <c r="U30">
-        <v>1</v>
-      </c>
-      <c r="V30">
-        <v>1</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>7</v>
-      </c>
-      <c r="AK30" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL30">
-        <v>0.02026756687963105</v>
-      </c>
-      <c r="AM30">
-        <v>1</v>
-      </c>
-      <c r="AN30">
-        <v>1</v>
-      </c>
-      <c r="AO30">
-        <v>1</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR30">
-        <v>7</v>
-      </c>
-      <c r="BC30" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="BD30">
-        <v>0.02186416280410053</v>
+        <v>0.0006625155156395478</v>
       </c>
       <c r="BE30">
         <v>1</v>
@@ -5795,7 +6272,31 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>8</v>
+        <v>11</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BM30">
+        <v>0.03129907943773579</v>
+      </c>
+      <c r="BN30">
+        <v>2</v>
+      </c>
+      <c r="BO30">
+        <v>2</v>
+      </c>
+      <c r="BP30">
+        <v>0</v>
+      </c>
+      <c r="BQ30">
+        <v>1</v>
+      </c>
+      <c r="BR30" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS30">
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -5803,7 +6304,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.0004235669024975585</v>
+        <v>0.0004213136272441223</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -5821,61 +6322,133 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <v>0.02946128999846127</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>36</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T31">
+        <v>0.0004715640206598359</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31">
+        <v>1</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>11</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC31">
+        <v>0.03089574099405321</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>1</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>1</v>
+      </c>
+      <c r="AH31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>47</v>
+      </c>
+      <c r="AK31" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL31">
+        <v>0.0005450069033443405</v>
+      </c>
+      <c r="AM31">
+        <v>1</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+      <c r="AQ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>11</v>
+      </c>
+      <c r="AT31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AU31">
+        <v>0.0311254577043024</v>
+      </c>
+      <c r="AV31">
+        <v>1</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>0</v>
+      </c>
+      <c r="AY31">
+        <v>1</v>
+      </c>
+      <c r="AZ31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA31">
+        <v>47</v>
+      </c>
+      <c r="BC31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="T31">
-        <v>0.0004838254274501999</v>
-      </c>
-      <c r="U31">
-        <v>1</v>
-      </c>
-      <c r="V31">
-        <v>1</v>
-      </c>
-      <c r="W31">
-        <v>1</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>7</v>
-      </c>
-      <c r="AK31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL31">
-        <v>0.02013359126615642</v>
-      </c>
-      <c r="AM31">
-        <v>1</v>
-      </c>
-      <c r="AN31">
-        <v>1</v>
-      </c>
-      <c r="AO31">
-        <v>1</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
-      </c>
-      <c r="AQ31" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR31">
-        <v>8</v>
-      </c>
-      <c r="BC31" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="BD31">
-        <v>0.02186416280410053</v>
+        <v>0.0006497395548872993</v>
       </c>
       <c r="BE31">
         <v>1</v>
@@ -5893,7 +6466,31 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="BL31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BM31">
+        <v>0.03121830371866005</v>
+      </c>
+      <c r="BN31">
+        <v>1</v>
+      </c>
+      <c r="BO31">
+        <v>1</v>
+      </c>
+      <c r="BP31">
+        <v>0</v>
+      </c>
+      <c r="BQ31">
+        <v>1</v>
+      </c>
+      <c r="BR31" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS31">
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -5901,7 +6498,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0004235669024975585</v>
+        <v>0.0004206412082571619</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -5919,61 +6516,133 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32">
+        <v>0.02937800184888967</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>1</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>47</v>
       </c>
       <c r="S32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="T32">
+        <v>0.0004683700304717738</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>1</v>
+      </c>
+      <c r="W32">
+        <v>1</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>12</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC32">
+        <v>0.03080018715592727</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>1</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>59</v>
+      </c>
+      <c r="AK32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL32">
+        <v>0.0005381275398623606</v>
+      </c>
+      <c r="AM32">
+        <v>1</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+      <c r="AQ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>12</v>
+      </c>
+      <c r="AT32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AU32">
+        <v>0.03102919340212414</v>
+      </c>
+      <c r="AV32">
+        <v>1</v>
+      </c>
+      <c r="AW32">
+        <v>1</v>
+      </c>
+      <c r="AX32">
+        <v>0</v>
+      </c>
+      <c r="AY32">
+        <v>1</v>
+      </c>
+      <c r="AZ32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA32">
+        <v>59</v>
+      </c>
+      <c r="BC32" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="T32">
-        <v>0.0004806320492392581</v>
-      </c>
-      <c r="U32">
-        <v>1</v>
-      </c>
-      <c r="V32">
-        <v>1</v>
-      </c>
-      <c r="W32">
-        <v>1</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>8</v>
-      </c>
-      <c r="AK32" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AL32">
-        <v>0.02013359126615642</v>
-      </c>
-      <c r="AM32">
-        <v>1</v>
-      </c>
-      <c r="AN32">
-        <v>1</v>
-      </c>
-      <c r="AO32">
-        <v>1</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
-      </c>
-      <c r="AQ32" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR32">
-        <v>8</v>
-      </c>
-      <c r="BC32" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="BD32">
-        <v>0.02186416280410053</v>
+        <v>0.0006497395548872993</v>
       </c>
       <c r="BE32">
         <v>1</v>
@@ -5991,15 +6660,39 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="BL32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="BM32">
+        <v>0.03112175226386007</v>
+      </c>
+      <c r="BN32">
+        <v>1</v>
+      </c>
+      <c r="BO32">
+        <v>1</v>
+      </c>
+      <c r="BP32">
+        <v>0</v>
+      </c>
+      <c r="BQ32">
+        <v>1</v>
+      </c>
+      <c r="BR32" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS32">
+        <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:62">
+    <row r="33" spans="1:71">
       <c r="A33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0004228946123478865</v>
+        <v>0.0004206412082571619</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -6017,61 +6710,133 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K33">
+        <v>0.02928714204935703</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>59</v>
       </c>
       <c r="S33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T33">
+        <v>0.0004683700304717738</v>
+      </c>
+      <c r="U33">
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>12</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC33">
+        <v>0.02902447833075359</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>1</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>1</v>
+      </c>
+      <c r="AH33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>282</v>
+      </c>
+      <c r="AK33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AL33">
+        <v>0.0005381275398623606</v>
+      </c>
+      <c r="AM33">
+        <v>1</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>1</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+      <c r="AQ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>12</v>
+      </c>
+      <c r="AT33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU33">
+        <v>0.02924028178664491</v>
+      </c>
+      <c r="AV33">
+        <v>1</v>
+      </c>
+      <c r="AW33">
+        <v>1</v>
+      </c>
+      <c r="AX33">
+        <v>0</v>
+      </c>
+      <c r="AY33">
+        <v>1</v>
+      </c>
+      <c r="AZ33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA33">
+        <v>282</v>
+      </c>
+      <c r="BC33" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="T33">
-        <v>0.0004806320492392581</v>
-      </c>
-      <c r="U33">
-        <v>1</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>1</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>8</v>
-      </c>
-      <c r="AK33" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL33">
-        <v>0.02013359126615642</v>
-      </c>
-      <c r="AM33">
-        <v>1</v>
-      </c>
-      <c r="AN33">
-        <v>1</v>
-      </c>
-      <c r="AO33">
-        <v>1</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
-      </c>
-      <c r="AQ33" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR33">
-        <v>8</v>
-      </c>
-      <c r="BC33" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="BD33">
-        <v>0.02152127554433236</v>
+        <v>0.0006369635941350507</v>
       </c>
       <c r="BE33">
         <v>1</v>
@@ -6089,15 +6854,39 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="BL33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="BM33">
+        <v>0.02932750439549378</v>
+      </c>
+      <c r="BN33">
+        <v>1</v>
+      </c>
+      <c r="BO33">
+        <v>1</v>
+      </c>
+      <c r="BP33">
+        <v>0</v>
+      </c>
+      <c r="BQ33">
+        <v>1</v>
+      </c>
+      <c r="BR33" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS33">
+        <v>282</v>
       </c>
     </row>
-    <row r="34" spans="1:62">
+    <row r="34" spans="1:71">
       <c r="A34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.0004228946123478865</v>
+        <v>0.0004199687892702014</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -6115,13 +6904,37 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K34">
+        <v>0.02759866410804198</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>1</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>282</v>
       </c>
       <c r="S34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="T34">
-        <v>0.0004806320492392581</v>
+        <v>0.0004651760402837116</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -6139,13 +6952,37 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>8</v>
+        <v>13</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC34">
+        <v>0.02640940420040475</v>
+      </c>
+      <c r="AD34">
+        <v>7</v>
+      </c>
+      <c r="AE34">
+        <v>7</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>1</v>
+      </c>
+      <c r="AH34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI34">
+        <v>1091</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.01973166442573253</v>
+        <v>0.0005312481763803805</v>
       </c>
       <c r="AM34">
         <v>1</v>
@@ -6163,19 +7000,43 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AT34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AU34">
+        <v>0.02495349231956481</v>
+      </c>
+      <c r="AV34">
+        <v>7</v>
+      </c>
+      <c r="AW34">
+        <v>7</v>
+      </c>
+      <c r="AX34">
+        <v>0</v>
+      </c>
+      <c r="AY34">
+        <v>1</v>
+      </c>
+      <c r="AZ34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA34">
+        <v>1091</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="BD34">
-        <v>0.02152127554433236</v>
+        <v>0.0006360463723963619</v>
       </c>
       <c r="BE34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG34">
         <v>1</v>
@@ -6187,15 +7048,39 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>11</v>
+        <v>45</v>
+      </c>
+      <c r="BL34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BM34">
+        <v>0.02436504746831603</v>
+      </c>
+      <c r="BN34">
+        <v>7</v>
+      </c>
+      <c r="BO34">
+        <v>7</v>
+      </c>
+      <c r="BP34">
+        <v>0</v>
+      </c>
+      <c r="BQ34">
+        <v>1</v>
+      </c>
+      <c r="BR34" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS34">
+        <v>1091</v>
       </c>
     </row>
-    <row r="35" spans="1:62">
+    <row r="35" spans="1:71">
       <c r="A35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.0004228946123478865</v>
+        <v>0.000419296370283241</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -6213,13 +7098,37 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>1</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>3927</v>
       </c>
       <c r="S35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="T35">
-        <v>0.0004710519146064328</v>
+        <v>0.0004619820500956495</v>
       </c>
       <c r="U35">
         <v>1</v>
@@ -6237,13 +7146,37 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>1</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>1</v>
+      </c>
+      <c r="AH35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>3927</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="AL35">
-        <v>0.01973166442573253</v>
+        <v>0.0005243688128984005</v>
       </c>
       <c r="AM35">
         <v>1</v>
@@ -6261,13 +7194,37 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="AT35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>1</v>
+      </c>
+      <c r="AW35">
+        <v>1</v>
+      </c>
+      <c r="AX35">
+        <v>0</v>
+      </c>
+      <c r="AY35">
+        <v>1</v>
+      </c>
+      <c r="AZ35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA35">
+        <v>3927</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BD35">
-        <v>0.0214069797910763</v>
+        <v>0.0006241876333828022</v>
       </c>
       <c r="BE35">
         <v>1</v>
@@ -6285,15 +7242,39 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="BL35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM35">
+        <v>0</v>
+      </c>
+      <c r="BN35">
+        <v>1</v>
+      </c>
+      <c r="BO35">
+        <v>1</v>
+      </c>
+      <c r="BP35">
+        <v>0</v>
+      </c>
+      <c r="BQ35">
+        <v>1</v>
+      </c>
+      <c r="BR35" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS35">
+        <v>3927</v>
       </c>
     </row>
-    <row r="36" spans="1:62">
+    <row r="36" spans="1:71">
       <c r="A36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0004208777418988707</v>
+        <v>0.000419296370283241</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -6311,13 +7292,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T36">
-        <v>0.0004710519146064328</v>
+        <v>0.0004619820500956495</v>
       </c>
       <c r="U36">
         <v>1</v>
@@ -6335,13 +7316,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK36" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AL36">
-        <v>0.0195976888122579</v>
+        <v>0.0005243688128984005</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -6359,19 +7340,19 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BC36" s="1" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="BD36">
-        <v>0.02128145939375558</v>
+        <v>0.0006241876333828022</v>
       </c>
       <c r="BE36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG36">
         <v>1</v>
@@ -6383,15 +7364,15 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:62">
+    <row r="37" spans="1:71">
       <c r="A37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.0004208777418988707</v>
+        <v>0.0004179515323093201</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -6409,13 +7390,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="S37" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T37">
-        <v>0.000467858536395491</v>
+        <v>0.0004555940697195252</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -6433,13 +7414,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AK37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AL37">
-        <v>0.01919576197183401</v>
+        <v>0.0005106100859344405</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -6457,13 +7438,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BD37">
-        <v>0.02106409253130814</v>
+        <v>0.0005986357118783049</v>
       </c>
       <c r="BE37">
         <v>1</v>
@@ -6481,15 +7462,15 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:62">
+    <row r="38" spans="1:71">
       <c r="A38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0004202054517491987</v>
+        <v>0.0004179515323093201</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -6507,13 +7488,13 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="S38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T38">
-        <v>0.0004582784017626656</v>
+        <v>0.0004555940697195252</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -6531,13 +7512,13 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL38">
-        <v>0.01919576197183401</v>
+        <v>0.0005106100859344405</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -6555,13 +7536,13 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BD38">
-        <v>0.02106409253130814</v>
+        <v>0.0005986357118783049</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -6579,15 +7560,15 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:62">
+    <row r="39" spans="1:71">
       <c r="A39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0004181885813001828</v>
+        <v>0.0004159342753484387</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -6605,13 +7586,13 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T39">
-        <v>0.0004582784017626656</v>
+        <v>0.0004460120991553388</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -6629,13 +7610,13 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AK39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="AL39">
-        <v>0.01865985951793549</v>
+        <v>0.0004899719954885006</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -6656,10 +7637,10 @@
         <v>19</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BD39">
-        <v>0.02060690951828392</v>
+        <v>0.0005603078296215593</v>
       </c>
       <c r="BE39">
         <v>1</v>
@@ -6680,12 +7661,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:62">
+    <row r="40" spans="1:71">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0004181885813001828</v>
+        <v>0.000411899761426676</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -6703,13 +7684,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T40">
-        <v>0.0004455048889188984</v>
+        <v>0.0004268481580269659</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -6727,13 +7708,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="AK40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AL40">
-        <v>0.01839190829098623</v>
+        <v>0.0004486958145966205</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -6751,13 +7732,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="BC40" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BD40">
-        <v>0.02037831801177181</v>
+        <v>0.0004836520651080679</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -6775,15 +7756,15 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:62">
+    <row r="41" spans="1:71">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.000415499420701495</v>
+        <v>0.0004105549234527551</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -6801,13 +7782,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="S41" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T41">
-        <v>0.0004391181324970149</v>
+        <v>0.0004204601776508417</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -6825,13 +7806,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AK41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AL41">
-        <v>0.01785600583708771</v>
+        <v>0.0004349370876326606</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -6849,13 +7830,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BC41" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BD41">
-        <v>0.01992113499874759</v>
+        <v>0.0004581001436035707</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -6873,15 +7854,15 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:62">
+    <row r="42" spans="1:71">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.0004141548404021512</v>
+        <v>0.0004105549234527551</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -6899,13 +7880,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="T42">
-        <v>0.0004263446196532477</v>
+        <v>0.0004204601776508417</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -6923,13 +7904,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL42">
-        <v>0.01758805461013844</v>
+        <v>0.0004349370876326606</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -6950,10 +7931,10 @@
         <v>27</v>
       </c>
       <c r="BC42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BD42">
-        <v>0.01969254349223548</v>
+        <v>0.0004581001436035707</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -6974,12 +7955,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:62">
+    <row r="43" spans="1:71">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.0004114656798034633</v>
+        <v>0.0004031583145961901</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -6997,13 +7978,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="S43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T43">
-        <v>0.0004199578632313641</v>
+        <v>0.0003853262855821581</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -7021,19 +8002,19 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="AK43" s="1" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="AL43">
-        <v>0.01712905281690239</v>
+        <v>0.0003592640893308806</v>
       </c>
       <c r="AM43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO43">
         <v>1</v>
@@ -7045,13 +8026,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="BC43" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BD43">
-        <v>0.0188924732194431</v>
+        <v>0.0003175645753288364</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -7069,301 +8050,7 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:62">
-      <c r="A44" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B44">
-        <v>0.0004101210995041194</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>27</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T44">
-        <v>0.0003976042157547716</v>
-      </c>
-      <c r="U44">
-        <v>1</v>
-      </c>
-      <c r="V44">
-        <v>1</v>
-      </c>
-      <c r="W44">
-        <v>1</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>34</v>
-      </c>
-      <c r="AK44" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL44">
-        <v>0.01665022531581603</v>
-      </c>
-      <c r="AM44">
-        <v>1</v>
-      </c>
-      <c r="AN44">
-        <v>1</v>
-      </c>
-      <c r="AO44">
-        <v>1</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>34</v>
-      </c>
-      <c r="BC44" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BD44">
-        <v>0.0188924732194431</v>
-      </c>
-      <c r="BE44">
-        <v>1</v>
-      </c>
-      <c r="BF44">
-        <v>1</v>
-      </c>
-      <c r="BG44">
-        <v>1</v>
-      </c>
-      <c r="BH44">
-        <v>0</v>
-      </c>
-      <c r="BI44" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ44">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:62">
-      <c r="A45" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45">
-        <v>0.0004054150684564157</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>34</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T45">
-        <v>0.0003976042157547716</v>
-      </c>
-      <c r="U45">
-        <v>1</v>
-      </c>
-      <c r="V45">
-        <v>1</v>
-      </c>
-      <c r="W45">
-        <v>1</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>34</v>
-      </c>
-      <c r="AK45" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL45">
-        <v>0.01665022531581603</v>
-      </c>
-      <c r="AM45">
-        <v>1</v>
-      </c>
-      <c r="AN45">
-        <v>1</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>34</v>
-      </c>
-      <c r="BC45" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="BD45">
-        <v>0.01773829104281787</v>
-      </c>
-      <c r="BE45">
-        <v>2</v>
-      </c>
-      <c r="BF45">
-        <v>2</v>
-      </c>
-      <c r="BG45">
-        <v>1</v>
-      </c>
-      <c r="BH45">
-        <v>0</v>
-      </c>
-      <c r="BI45" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ45">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:62">
-      <c r="A46" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B46">
-        <v>0.0004054150684564157</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>34</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T46">
-        <v>0.0003281911824055657</v>
-      </c>
-      <c r="U46">
-        <v>4</v>
-      </c>
-      <c r="V46">
-        <v>4</v>
-      </c>
-      <c r="W46">
-        <v>1</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>295</v>
-      </c>
-      <c r="AK46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL46">
-        <v>0</v>
-      </c>
-      <c r="AM46">
-        <v>4</v>
-      </c>
-      <c r="AN46">
-        <v>4</v>
-      </c>
-      <c r="AO46">
-        <v>1</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>295</v>
-      </c>
-      <c r="BC46" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BD46">
-        <v>0</v>
-      </c>
-      <c r="BE46">
-        <v>4</v>
-      </c>
-      <c r="BF46">
-        <v>4</v>
-      </c>
-      <c r="BG46">
-        <v>1</v>
-      </c>
-      <c r="BH46">
-        <v>0</v>
-      </c>
-      <c r="BI46" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ46">
-        <v>295</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
